--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646931</v>
+        <v>572993.6190112258</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226765</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>6.396723986040958</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>55.48281408682533</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>149.793316143436</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.10833718734011</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.7012200561195</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>68.45099403238667</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>113.7456791730047</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>149.7933161434358</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.21594625443443</v>
+        <v>38.11163636040544</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>161.6815518675532</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>88.09081815943087</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>36.39469600159752</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>10.43817752600981</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>65.63512030001876</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>38.1116363604059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>265.9318059937551</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>56.91547624318785</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394544</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>164.2532214802698</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>267.3434267027885</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>260.1478989722385</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>13.56275626089594</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>61.36917500887012</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>227.7359967734943</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3013276789176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>328.9725371167045</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>100.8263852568438</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>108.3633977605943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>33.15626133797962</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2375,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>203.1970499995713</v>
       </c>
       <c r="Y23" t="n">
-        <v>23.79925355567503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.98468253744014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>160.8915086215178</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>68.35584245823229</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482832</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>160.8915086215183</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.53347461457284</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.23712159276612</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>91.61745183476873</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3007,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>61.36917500887014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.64559995940405</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>235.9375844494528</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.545462884864218</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>81.46084344268475</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>229.796569204137</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498669</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>82.11246327371903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>258.865916727017</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>239.3447361355277</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>25.73722946637103</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3599,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247742</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.57567088453339</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>207.1042916895886</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>184.1739595194687</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.80633068795266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>385.6774429869462</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>105.0023863360929</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.95866062610916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>127.3385186497847</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644749</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123821</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823961</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659117</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>210.8831693494273</v>
       </c>
       <c r="V2" t="n">
-        <v>371.26277863231</v>
+        <v>21.46338433294289</v>
       </c>
       <c r="W2" t="n">
-        <v>371.26277863231</v>
+        <v>21.46338433294289</v>
       </c>
       <c r="X2" t="n">
-        <v>371.26277863231</v>
+        <v>21.46338433294289</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296053</v>
+        <v>163.9364566345568</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>163.9364566345568</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>694.0591021129293</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>542.7760266675256</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>542.7760266675256</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>353.3562416510412</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>353.3562416510412</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158252</v>
+        <v>353.3562416510412</v>
       </c>
       <c r="X3" t="n">
-        <v>30.53661367296053</v>
+        <v>353.3562416510412</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296053</v>
+        <v>163.9364566345568</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910365</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843498</v>
       </c>
       <c r="C5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843498</v>
       </c>
       <c r="D5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843498</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7407511348962</v>
+        <v>710.0001061843498</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>520.5803211678652</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513808</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>141.7407511348963</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823978</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T5" t="n">
-        <v>400.302954365913</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U5" t="n">
-        <v>210.8831693494282</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V5" t="n">
-        <v>141.7407511348962</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W5" t="n">
-        <v>141.7407511348962</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X5" t="n">
-        <v>141.7407511348962</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7407511348962</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652797</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="C6" t="n">
-        <v>750.1023486652797</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="D6" t="n">
-        <v>635.2077232380022</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="E6" t="n">
-        <v>475.9702682325468</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="F6" t="n">
-        <v>329.4357102594318</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="G6" t="n">
-        <v>191.8965290818809</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="H6" t="n">
-        <v>90.03616812153781</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296054</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>560.682563648794</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652797</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652797</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652797</v>
+        <v>181.842993615825</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652797</v>
+        <v>30.53661367296058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>29.24882464404152</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.320494928841</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C8" t="n">
-        <v>1615.005796072727</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928841</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>372.6371690098584</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>372.6371690098584</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>372.6371690098584</v>
       </c>
       <c r="X9" t="n">
-        <v>672.5286484590418</v>
+        <v>372.6371690098584</v>
       </c>
       <c r="Y9" t="n">
-        <v>672.5286484590418</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>322.003829010384</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1859.132475219475</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.169958279064</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1131.904259672313</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E11" t="n">
-        <v>746.1160070740689</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>335.1301022844613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520489</v>
+        <v>2367.253661407131</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.871647259409</v>
+        <v>2367.253661407131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.732315283597</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D13" t="n">
-        <v>770.7703664058492</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>622.8572728234561</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>475.9673253255457</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5194,55 +5196,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694473</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>764.341133147311</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>378.5528805490667</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>378.5528805490667</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>378.5528805490667</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5276,19 +5278,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5315,13 +5317,13 @@
         <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995486</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734407</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758595</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228012</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>491.4575708201461</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5464,22 +5466,22 @@
         <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>639.3706644025392</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>639.3706644025392</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y16" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694473</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1122.606831754061</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>1122.606831754061</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>711.6209269644539</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>296.5484768094504</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064761</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450114</v>
+        <v>832.0660869429006</v>
       </c>
       <c r="T19" t="n">
-        <v>507.4345062145375</v>
+        <v>610.2994715124266</v>
       </c>
       <c r="U19" t="n">
-        <v>218.331639340181</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V19" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="W19" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X19" t="n">
-        <v>218.331639340181</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2291.674678112796</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="C20" t="n">
-        <v>1922.712161172384</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="D20" t="n">
-        <v>1564.446462565634</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1036.412203730097</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>625.4262989404897</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>210.3538487854862</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W20" t="n">
-        <v>2678.274518176918</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X20" t="n">
-        <v>2678.274518176918</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.274518176918</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.957356778932</v>
+        <v>2915.967805880913</v>
       </c>
       <c r="C22" t="n">
-        <v>2975.021173851025</v>
+        <v>2915.967805880913</v>
       </c>
       <c r="D22" t="n">
-        <v>2824.904534438689</v>
+        <v>2915.967805880913</v>
       </c>
       <c r="E22" t="n">
-        <v>2715.446556902735</v>
+        <v>2915.967805880913</v>
       </c>
       <c r="F22" t="n">
-        <v>2568.556609404825</v>
+        <v>2882.476632812246</v>
       </c>
       <c r="G22" t="n">
-        <v>2568.556609404825</v>
+        <v>2714.773796186965</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404825</v>
+        <v>2568.556609404823</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>3097.616270711153</v>
       </c>
       <c r="Y22" t="n">
-        <v>3325.605821609171</v>
+        <v>3097.616270711153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E23" t="n">
         <v>1232.150970528558</v>
@@ -5984,55 +5986,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X23" t="n">
-        <v>2755.806928794324</v>
+        <v>1977.016509199431</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.23093222317</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.23093222317</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.23093222317</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.23093222317</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.23093222317</v>
+        <v>360.5445587166269</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3163.089146233901</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T25" t="n">
-        <v>3163.089146233901</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U25" t="n">
-        <v>3163.089146233901</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V25" t="n">
-        <v>3163.089146233901</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W25" t="n">
-        <v>2873.67197619694</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X25" t="n">
-        <v>2873.67197619694</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y25" t="n">
-        <v>2652.87939705341</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C26" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3050.581768480028</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3050.581768480028</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.813113209913</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2324.347354948834</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.120390387711</v>
+        <v>229.0287918074544</v>
       </c>
       <c r="C28" t="n">
-        <v>699.120390387711</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0037509753753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>549.0037509753753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X28" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.120390387711</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3294.053173535669</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3088.075425919891</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3088.075425919891</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="V29" t="n">
-        <v>3088.075425919891</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W29" t="n">
-        <v>2735.306770649777</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X29" t="n">
-        <v>2735.306770649777</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6545,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>3236.784902733886</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>3015.018287303412</v>
       </c>
       <c r="U31" t="n">
-        <v>128.5011820977088</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>304.832908805368</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>304.832908805368</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>304.832908805368</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269323</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2388.243802269323</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y32" t="n">
-        <v>2388.243802269323</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
         <v>765.1517452158131</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2638.933768848452</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193526</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3040.508204552249</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>3040.508204552249</v>
+        <v>3243.322141364034</v>
       </c>
       <c r="V34" t="n">
-        <v>2785.823716346362</v>
+        <v>2988.637653158147</v>
       </c>
       <c r="W34" t="n">
-        <v>2785.823716346362</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y34" t="n">
-        <v>2785.823716346362</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G35" t="n">
         <v>66.5121164321834</v>
@@ -6938,22 +6940,22 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6971,16 +6973,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2639694321828</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C37" t="n">
-        <v>610.2639694321828</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D37" t="n">
-        <v>610.2639694321828</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E37" t="n">
-        <v>610.2639694321828</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F37" t="n">
-        <v>463.3740219342724</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>295.6711853089913</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H37" t="n">
-        <v>149.4539985268491</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7117,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>659.406281851501</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>659.406281851501</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>659.406281851501</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>659.406281851501</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>659.406281851501</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.276849100054</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C38" t="n">
-        <v>1463.314332159642</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>1105.048633552891</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>719.2603809546472</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>308.2744761650396</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7181,16 +7183,16 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>2729.809727313141</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139987</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139987</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164175</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>2882.476632812247</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>2714.773796186966</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I40" t="n">
         <v>2471.230932223169</v>
@@ -7354,28 +7356,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.60582160917</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528927</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491966</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>3029.366580310157</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926361</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>709.6157678926361</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>294.5433177376325</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7409,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7451,10 +7453,10 @@
         <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="42">
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
         <v>529.0179941377679</v>
@@ -7600,19 +7602,19 @@
         <v>831.0565485757129</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1569.101759311879</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1200.139242371467</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>841.8735437647167</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>456.0852911664725</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F44" t="n">
-        <v>456.0852911664725</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
         <v>66.5121164321834</v>
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883006</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612892</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.840931351812</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.701599376001</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7727,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7837,19 +7839,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734814</v>
+        <v>3196.981055296256</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528927</v>
+        <v>2942.29656709037</v>
       </c>
       <c r="W46" t="n">
-        <v>2492.401296491966</v>
+        <v>2652.879397053409</v>
       </c>
       <c r="X46" t="n">
-        <v>2492.401296491966</v>
+        <v>2652.879397053409</v>
       </c>
       <c r="Y46" t="n">
-        <v>2492.401296491966</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
   </sheetData>
@@ -22547,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1003545949131</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988725</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871046</v>
+        <v>63.6436733987108</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038154</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>379.8412146700126</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>16.95008154163791</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>55.97966906004143</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098484</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>34.57770336425719</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625593</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.0326216073611</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399027</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988685</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.6436733987104</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>259.3012644377482</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22866,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>33.69938639163409</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>55.8893796338686</v>
       </c>
     </row>
     <row r="7">
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819752</v>
+        <v>18.95836326784878</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>203.5913399034544</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>70.68499503062223</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>189.4690724084934</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>195.3348076774677</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>100.816380810913</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.95836326784828</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9899196596983</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>292.3254924742251</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.772586778757926</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.772586778758438</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>27.26433768453194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>126.0900396838151</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8582917620353</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23735,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>66.87176761382619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>101.8363156449105</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.28332567317719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>52.95783295555725</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>193.7813791304767</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>38.07056488597483</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>112.2647866849516</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>166.5340506788978</v>
       </c>
       <c r="Y23" t="n">
-        <v>362.4386851003786</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>116.0411257215881</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>28.87751670992407</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>182.6393295006697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>306.4732379112253</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>6.355312477109578</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.88757340835841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>77.95064019540972</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>159.3777201241332</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>190.7684683149579</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.0882417040765</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>174.9841412040007</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>216.003486391305</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629281</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>97.9556892659979</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.23995713611906</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>27.34592147859587</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5769895179258</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>302.0150290037639</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>204.9732783916358</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>204.750994762928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>147.5787499310944</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>110.4338048678518</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>135.8091423302597</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>135.8091423302598</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>25.24428266650727</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.9927856228091</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.8733195558281</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>158.8733195558282</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061948</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903118</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26314,13 +26316,13 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003118</v>
@@ -26329,19 +26331,19 @@
         <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312588.928500312</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003116</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
         <v>312588.9285003118</v>
@@ -26353,7 +26355,7 @@
         <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003115</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669101</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127038</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137.8001180723337</v>
+      </c>
+      <c r="C4" t="n">
+        <v>137.8001180723338</v>
+      </c>
+      <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
-      <c r="C4" t="n">
-        <v>137.800118072334</v>
-      </c>
-      <c r="D4" t="n">
-        <v>384.3219252469136</v>
-      </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266547</v>
+        <v>-490172.8407266543</v>
       </c>
       <c r="C6" t="n">
         <v>101184.0617941907</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514465</v>
+        <v>101184.0617941903</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.8048169977</v>
+        <v>-389436.7026837555</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499125</v>
+      </c>
+      <c r="G6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="G6" t="n">
-        <v>237697.9409499123</v>
-      </c>
       <c r="H6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499125</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="J6" t="n">
         <v>188632.9962213677</v>
       </c>
       <c r="K6" t="n">
+        <v>237697.9409499123</v>
+      </c>
+      <c r="L6" t="n">
         <v>237697.9409499122</v>
       </c>
-      <c r="L6" t="n">
-        <v>147954.5628186419</v>
-      </c>
       <c r="M6" t="n">
-        <v>165606.5883338263</v>
+        <v>77241.49908203493</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499121</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129042</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129042</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
-      <c r="C3" t="n">
-        <v>548.4699409129046</v>
-      </c>
-      <c r="D3" t="n">
-        <v>853.7106645376841</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598436</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829648</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31996,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32233,10 +32235,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
         <v>691.3565293623194</v>
@@ -32470,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33661,7 +33663,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
         <v>769.2673490574995</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996315</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37309,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112258</v>
+        <v>515726.6621658588</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8088944.869226766</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312845</v>
+        <v>8722880.896883903</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.396723986040958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>55.48281408682533</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663195</v>
+        <v>20.10332478271057</v>
       </c>
     </row>
     <row r="4">
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734011</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.7012200561195</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>88.09081815943067</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663196</v>
+        <v>17.72747161145544</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.7933161434358</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.11163636040544</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>52.21594625443432</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.394442081209</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>88.09081815943087</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.52558716632</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>184.7854324598614</v>
       </c>
       <c r="U9" t="n">
-        <v>36.39469600159752</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,28 +1296,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>31.68046530976811</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.1116363604059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>56.91547624318785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>174.5260191820877</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394544</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>149.9901675479391</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>298.2211116725512</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.1478989722385</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.206310387422</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.36917500887012</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>41.44059585273694</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>124.4808309317249</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>100.8263852568438</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>189.8632485932803</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247724</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>141.4637302197485</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>33.15626133797962</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>9.099193441180644</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>203.1970499995713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>49.98468253744014</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>242.7840558312787</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.76470074482832</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C28" t="n">
-        <v>160.8915086215183</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>91.61745183476873</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>303.760491400656</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>235.9375844494528</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>100.9068926882543</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>85.43964093246942</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>81.46084344268475</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>293.7847364097043</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>258.865916727017</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>205.6368254889311</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3559,16 +3559,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>25.73722946637103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.57567088453339</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>19.26836562025094</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>207.1042916895886</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>52.4834915335036</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>173.787827835806</v>
       </c>
       <c r="U43" t="n">
-        <v>150.4026958753531</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>324.3727542084968</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>105.0023863360929</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>127.3385186497847</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>120.6508717676901</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330556</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330556</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330556</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330556</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330556</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330556</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644749</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123821</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998557</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020252</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823961</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659117</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>210.8831693494273</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>21.46338433294289</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>21.46338433294289</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>21.46338433294289</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330556</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9364566345568</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="C3" t="n">
-        <v>163.9364566345568</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330556</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330556</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546591</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476336</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017048</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652781</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>694.0591021129293</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>542.7760266675256</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>542.7760266675256</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>353.3562416510412</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>353.3562416510412</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W3" t="n">
-        <v>353.3562416510412</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X3" t="n">
-        <v>353.3562416510412</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="Y3" t="n">
-        <v>163.9364566345568</v>
+        <v>161.5366049464206</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330556</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.0001061843498</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="C5" t="n">
-        <v>710.0001061843498</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="D5" t="n">
-        <v>710.0001061843498</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843498</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678652</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513808</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
         <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123825</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652786</v>
+        <v>672.2420264262252</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.53661367296058</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C6" t="n">
-        <v>30.53661367296058</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O6" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T6" t="n">
-        <v>560.682563648794</v>
+        <v>560.6825636487945</v>
       </c>
       <c r="U6" t="n">
-        <v>560.682563648794</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323095</v>
+        <v>353.3562416510416</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323095</v>
+        <v>353.3562416510416</v>
       </c>
       <c r="X6" t="n">
-        <v>181.842993615825</v>
+        <v>353.3562416510416</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.53661367296058</v>
+        <v>163.9364566345569</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N7" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.0020469733056</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="C8" t="n">
-        <v>15.0020469733056</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="D8" t="n">
-        <v>15.0020469733056</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="E8" t="n">
-        <v>15.0020469733056</v>
+        <v>1176.295754698804</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0020469733056</v>
+        <v>765.3098499091961</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262255</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>583.26140202276</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>393.8416170062752</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>204.4218319897904</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>204.4218319897904</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>204.4218319897904</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X8" t="n">
-        <v>15.0020469733056</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.0020469733056</v>
+        <v>1562.084007297048</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024242</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476351</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198761</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>409.3994882033913</v>
+        <v>1579.575095353829</v>
       </c>
       <c r="U9" t="n">
-        <v>372.6371690098584</v>
+        <v>1351.473505487093</v>
       </c>
       <c r="V9" t="n">
-        <v>372.6371690098584</v>
+        <v>1116.32139725535</v>
       </c>
       <c r="W9" t="n">
-        <v>372.6371690098584</v>
+        <v>862.0840405271485</v>
       </c>
       <c r="X9" t="n">
-        <v>372.6371690098584</v>
+        <v>654.2325403216157</v>
       </c>
       <c r="Y9" t="n">
-        <v>183.2173839933736</v>
+        <v>654.2325403216157</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>370.1727076282633</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>222.2596140458702</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828987</v>
+        <v>75.36966654795984</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230176</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.514489367197</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200353</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2367.253661407131</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.253661407131</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.114329431319</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181855</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181855</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181855</v>
+        <v>507.434506214537</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181855</v>
+        <v>218.0173361775764</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
         <v>1617.939223126803</v>
@@ -5275,55 +5275,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265601</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.542934265601</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X14" t="n">
-        <v>2994.542934265601</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5512,13 +5512,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329463</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2713.947741064286</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218339</v>
+        <v>192.2503294945318</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>832.0660869429006</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>610.2994715124266</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>321.1966046380703</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V19" t="n">
-        <v>66.51211643218339</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218339</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.200456328341</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.200456328341</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.200456328341</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.412203730097</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>625.4262989404897</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3538487854862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912074</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923657</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653543</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392463</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392463</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2915.967805880913</v>
+        <v>507.434506214537</v>
       </c>
       <c r="C22" t="n">
-        <v>2915.967805880913</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D22" t="n">
-        <v>2915.967805880913</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E22" t="n">
-        <v>2915.967805880913</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>2882.476632812246</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2714.773796186965</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>507.434506214537</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.60582160917</v>
+        <v>507.434506214537</v>
       </c>
       <c r="X22" t="n">
-        <v>3097.616270711153</v>
+        <v>507.434506214537</v>
       </c>
       <c r="Y22" t="n">
-        <v>3097.616270711153</v>
+        <v>507.434506214537</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.416669135309</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C23" t="n">
-        <v>1590.416669135309</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D23" t="n">
-        <v>1232.150970528558</v>
+        <v>1287.54982846108</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>901.7615758628356</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>490.775671073228</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>75.70322091822447</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>75.70322091822447</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923657</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653543</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>1977.016509199431</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.016509199431</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5445587166269</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6174,25 +6174,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>507.4345062145372</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>507.4345062145372</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.4345062145372</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1617.939223126803</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1617.939223126803</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3080.369401577575</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2749.306514234005</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y26" t="n">
-        <v>1617.939223126803</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>229.0287918074544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6423,13 +6423,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>410.6772566376941</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.798686923957</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3122.772272495085</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>3122.772272495085</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2770.00361722497</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X29" t="n">
-        <v>2396.53785896389</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y29" t="n">
-        <v>2006.398526988078</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3236.784902733886</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3015.018287303412</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>2725.915420429056</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V31" t="n">
-        <v>2471.230932223169</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223169</v>
+        <v>120.6003534763939</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1032.06112435253</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>663.0986074121186</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>304.832908805368</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>304.832908805368</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>304.832908805368</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>1418.660964416652</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>299.7047315386487</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>299.7047315386487</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>152.8147840407384</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3243.322141364034</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>2988.637653158147</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.220483121187</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038042</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.40402049088</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926361</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.5121164321834</v>
@@ -6937,10 +6937,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102164</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7125,22 +7125,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>659.406281851501</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V37" t="n">
-        <v>659.406281851501</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W37" t="n">
-        <v>659.406281851501</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X37" t="n">
-        <v>659.406281851501</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y37" t="n">
-        <v>659.406281851501</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1986.901740067214</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.939223126803</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V38" t="n">
-        <v>2729.809727313141</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W38" t="n">
-        <v>2377.041072043026</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X38" t="n">
-        <v>2377.041072043026</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y38" t="n">
-        <v>1986.901740067214</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3029.366580310157</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C40" t="n">
-        <v>3029.366580310157</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D40" t="n">
-        <v>3029.366580310157</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>3029.366580310157</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>2882.476632812247</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>3029.366580310157</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>3029.366580310157</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V40" t="n">
-        <v>3029.366580310157</v>
+        <v>612.3211433678175</v>
       </c>
       <c r="W40" t="n">
-        <v>3029.366580310157</v>
+        <v>612.3211433678175</v>
       </c>
       <c r="X40" t="n">
-        <v>3029.366580310157</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y40" t="n">
-        <v>3029.366580310157</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299122</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.13547735871</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>161.5226430043345</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363244</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>679.1346335501037</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>745.3437453779769</v>
       </c>
       <c r="U43" t="n">
-        <v>679.1346335501037</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="V43" t="n">
-        <v>679.1346335501037</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="W43" t="n">
-        <v>679.1346335501037</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="X43" t="n">
-        <v>679.1346335501037</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y43" t="n">
-        <v>679.1346335501037</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U46" t="n">
-        <v>3196.981055296256</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V46" t="n">
-        <v>2942.29656709037</v>
+        <v>385.564938772426</v>
       </c>
       <c r="W46" t="n">
-        <v>2652.879397053409</v>
+        <v>385.564938772426</v>
       </c>
       <c r="X46" t="n">
-        <v>2652.879397053409</v>
+        <v>385.564938772426</v>
       </c>
       <c r="Y46" t="n">
-        <v>2652.879397053409</v>
+        <v>385.564938772426</v>
       </c>
     </row>
   </sheetData>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988725</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.6436733987108</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038154</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.8412146700126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.95008154163791</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437714</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098484</v>
+        <v>185.5793709945938</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425719</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.0326216073611</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>293.8395519128311</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637384</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399027</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>213.4438810562068</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22883,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681611</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310563</v>
+        <v>215.0731155379698</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.8893796338686</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>18.95836326784878</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>16.47009429716295</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>1.476292762417813</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>70.68499503062223</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988683</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871038</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681299</v>
+        <v>7.977785850902393</v>
       </c>
       <c r="U9" t="n">
-        <v>189.4690724084934</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>116.8593460514771</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784828</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>292.3254924742251</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>211.7119194739659</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778757926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.7194878410981</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>51.01985704486185</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>126.0900396838151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>79.62566979451535</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>286.311662617398</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>21.9531317148443</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>101.8363156449105</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>193.7813791304767</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>159.3777201241327</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>25.78309087887931</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>112.2647866849516</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>32.47773633174531</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>166.5340506788978</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.0411257215881</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.211116127623285</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.4732379112253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C28" t="n">
-        <v>6.355312477109578</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>159.3777201241332</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>45.48047731675706</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>91.87369334916288</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>174.9841412040007</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>268.8242079902147</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>80.58616732655881</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>204.7509947629281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>92.45320224634929</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>27.34592147859587</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>149.0462161317518</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>302.0150290037639</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>204.9732783916358</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>232.8692777035771</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>147.5787499310944</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>354.3925542082079</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>45.76112144036321</v>
       </c>
       <c r="U43" t="n">
-        <v>135.8091423302598</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.90013756251079</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>145.9927856228091</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>158.8733195558282</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>131.4867715561379</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061948</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061953</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903113</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238765</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="H2" t="n">
         <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="K2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003116</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="P2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312588.9285003115</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>371558.5249487662</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.643633668</v>
+        <v>276030.7457669098</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>72091.35261608614</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723337</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
         <v>584.646989006123</v>
@@ -26444,7 +26444,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061231</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161353</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26505,10 +26505,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266543</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941907</v>
+        <v>88989.99977515597</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941903</v>
+        <v>-219414.6903676097</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837555</v>
+        <v>-42406.80019516702</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.000843198</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>143880.5674404723</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203493</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499121</v>
+        <v>233623.9455717427</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26825,10 +26825,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>305.2407236247797</v>
       </c>
       <c r="E3" t="n">
-        <v>541.306759680394</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359731</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829648</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996315</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
